--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.4542194065925</v>
+        <v>-1714.639187031591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>334.4382242773804</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>14.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208646</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>231.183185165049</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>143.136659726429</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801553</v>
+        <v>57.88099638015537</v>
       </c>
       <c r="S3" t="n">
         <v>159.035360425222</v>
@@ -792,7 +792,7 @@
         <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>104.6323039548186</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.3806979096192</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>125.7390837397936</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>318.3639003300257</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>78.55741663186701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5367147168705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.3243799685264</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.99240337009289</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.706926911161502</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.4415385849365</v>
       </c>
       <c r="C13" t="n">
-        <v>49.7658884876856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465729</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365872</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.75769145492332</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004958</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2984856025721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>131.5730391207922</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>120.6353666620235</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.75769145492525</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>43.60518237482154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238261</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>49.49044812922001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2533,13 +2533,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.9115438999867</v>
       </c>
       <c r="X28" t="n">
-        <v>46.51515808760772</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>109.8578268062642</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0955237083909</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>197.7636407553159</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320707</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880063</v>
+        <v>6.081513486880247</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247697</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605232</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>106.3188786544905</v>
+        <v>6.356517984770001</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379219</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S37" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660489</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880247</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213012</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247692</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>81.61902744447173</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368853</v>
+        <v>6.356517984770067</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400162</v>
       </c>
       <c r="S40" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660489</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880084</v>
+        <v>6.081513486880255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321664</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368853</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>58.61957059314434</v>
       </c>
       <c r="I43" t="n">
-        <v>60.8570041237922</v>
+        <v>60.85700412379239</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400162</v>
       </c>
       <c r="S43" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W43" t="n">
-        <v>162.5300067429504</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660489</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862158</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880041</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212991</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247699</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605232</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368853</v>
+        <v>6.356517984770855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282748</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379217</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S46" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195669</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>30.77860193036823</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660488</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1391.209209216216</v>
+        <v>1491.681022691634</v>
       </c>
       <c r="C2" t="n">
-        <v>1022.246692275804</v>
+        <v>1122.718505751222</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.246692275804</v>
+        <v>784.9021175922524</v>
       </c>
       <c r="E2" t="n">
-        <v>636.4584396775601</v>
+        <v>399.1138649940082</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4725348879526</v>
+        <v>392.1683642448047</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>377.9965460511254</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244778</v>
+        <v>143.3613405244776</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293487</v>
+        <v>406.6417666293485</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024613</v>
+        <v>785.5410436024607</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782767</v>
+        <v>1223.746040782766</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400857</v>
+        <v>1654.409655400855</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.88545667174</v>
+        <v>2015.885456671738</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110671</v>
+        <v>2286.722307110669</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750807</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750807</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025873</v>
+        <v>2231.04951802587</v>
       </c>
       <c r="T2" t="n">
-        <v>2011.327418133923</v>
+        <v>2231.04951802587</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.327418133923</v>
+        <v>2231.04951802587</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.327418133923</v>
+        <v>2231.04951802587</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.327418133923</v>
+        <v>1878.280862755756</v>
       </c>
       <c r="X2" t="n">
-        <v>1777.809049280338</v>
+        <v>1878.280862755756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1777.809049280338</v>
+        <v>1878.280862755756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>815.4602331081111</v>
+        <v>692.9710606982737</v>
       </c>
       <c r="C3" t="n">
-        <v>641.0072038269841</v>
+        <v>548.3885761261232</v>
       </c>
       <c r="D3" t="n">
-        <v>492.0727941657329</v>
+        <v>399.4541664648719</v>
       </c>
       <c r="E3" t="n">
-        <v>332.8353391602774</v>
+        <v>399.4541664648719</v>
       </c>
       <c r="F3" t="n">
-        <v>186.3007811871624</v>
+        <v>252.9196084917569</v>
       </c>
       <c r="G3" t="n">
-        <v>48.25775485501619</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
-        <v>48.25775485501619</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719579</v>
+        <v>111.2074192719578</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503511</v>
+        <v>345.4192653503508</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265937</v>
+        <v>525.946515351966</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664337</v>
+        <v>1017.086411664336</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.93233298718</v>
+        <v>1536.932332987179</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602204</v>
+        <v>1946.074112602202</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642313</v>
+        <v>2257.443393642311</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750807</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841562</v>
+        <v>2354.422089841559</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634267</v>
+        <v>2193.780311634264</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972568</v>
+        <v>1994.366029972565</v>
       </c>
       <c r="U3" t="n">
-        <v>1888.67683405861</v>
+        <v>1766.187661648773</v>
       </c>
       <c r="V3" t="n">
-        <v>1653.524725826867</v>
+        <v>1531.03555341703</v>
       </c>
       <c r="W3" t="n">
-        <v>1399.287369098666</v>
+        <v>1276.798196688829</v>
       </c>
       <c r="X3" t="n">
-        <v>1191.435868893133</v>
+        <v>1068.946696483296</v>
       </c>
       <c r="Y3" t="n">
-        <v>983.6755701281791</v>
+        <v>861.1863977183418</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="C4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="D4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="E4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="F4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="G4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="H4" t="n">
-        <v>1830.10471890798</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="I4" t="n">
-        <v>1830.10471890798</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="J4" t="n">
-        <v>1830.10471890798</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="K4" t="n">
-        <v>1873.718396997573</v>
+        <v>91.87143294460972</v>
       </c>
       <c r="L4" t="n">
-        <v>1985.055323891397</v>
+        <v>203.2083598384336</v>
       </c>
       <c r="M4" t="n">
-        <v>2112.833625806391</v>
+        <v>330.9866617534275</v>
       </c>
       <c r="N4" t="n">
-        <v>2243.008261722247</v>
+        <v>461.1612976692836</v>
       </c>
       <c r="O4" t="n">
-        <v>2347.229311851414</v>
+        <v>565.3823477984505</v>
       </c>
       <c r="P4" t="n">
-        <v>2412.88774275081</v>
+        <v>631.0407786978456</v>
       </c>
       <c r="Q4" t="n">
-        <v>2412.88774275081</v>
+        <v>631.0407786978456</v>
       </c>
       <c r="R4" t="n">
-        <v>2412.88774275081</v>
+        <v>504.0316032031045</v>
       </c>
       <c r="S4" t="n">
-        <v>2196.657398084939</v>
+        <v>504.0316032031045</v>
       </c>
       <c r="T4" t="n">
-        <v>1968.873100634868</v>
+        <v>276.2473057530335</v>
       </c>
       <c r="U4" t="n">
-        <v>1968.873100634868</v>
+        <v>276.2473057530335</v>
       </c>
       <c r="V4" t="n">
-        <v>1968.873100634868</v>
+        <v>276.2473057530335</v>
       </c>
       <c r="W4" t="n">
-        <v>1968.873100634868</v>
+        <v>276.2473057530335</v>
       </c>
       <c r="X4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
       <c r="Y4" t="n">
-        <v>1968.873100634868</v>
+        <v>48.25775485501614</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1164.312709242129</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.312709242129</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4626,13 +4626,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.511531185079</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>1026.549014244667</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D8" t="n">
-        <v>668.283315637917</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>718.6990929206892</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>300.735284818876</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.6669506791649</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="C10" t="n">
-        <v>224.6669506791649</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="D10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>55.66715041749728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791649</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>224.6669506791649</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>224.6669506791649</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.6669506791649</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M11" t="n">
-        <v>2274.668463554308</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>3254.420735780954</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
         <v>3757.393206660291</v>
@@ -5072,7 +5072,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261303</v>
@@ -5109,10 +5109,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,7 +5133,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.7492891710228</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410374</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755287016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.6435265574</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W13" t="n">
-        <v>811.541868314553</v>
+        <v>619.8559841413838</v>
       </c>
       <c r="X13" t="n">
-        <v>811.541868314553</v>
+        <v>619.8559841413838</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.7492891710228</v>
+        <v>399.0634049978537</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5279,49 +5279,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>811.558487554775</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1676.07730320813</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2209.609207880054</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>3189.361480106701</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.4807149410337</v>
+        <v>171.0738540998321</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862229</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689055</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608812</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718512</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>722.1291797712735</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.1291797712735</v>
+        <v>171.0738540998321</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3008.107474639232</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
         <v>3757.393206660291</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.3827746590057</v>
+        <v>217.41494016761</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410337</v>
+        <v>217.41494016761</v>
       </c>
       <c r="D19" t="n">
-        <v>390.364075528698</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5677,10 +5677,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5689,34 +5689,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104701</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799871</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593984</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>901.372325557023</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590057</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y19" t="n">
-        <v>673.3827746590057</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>836.0059675195635</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1287.040180767972</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2265.590483597801</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656583</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,34 +5847,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.4807149410336</v>
+        <v>171.0738540998341</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1822.467370099785</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.467370099785</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.364503225429</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1278.680015019542</v>
+        <v>909.2731541783421</v>
       </c>
       <c r="W22" t="n">
-        <v>989.2628449825811</v>
+        <v>619.8559841413814</v>
       </c>
       <c r="X22" t="n">
-        <v>761.2732940845638</v>
+        <v>391.8664332433642</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.4807149410336</v>
+        <v>171.0738540998341</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,22 +5990,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1034.340101969334</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.9298856159686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>392.9937026880617</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>242.8770632757259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.8770632757259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>242.8770632757259</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>964.3709295897385</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X25" t="n">
-        <v>964.3709295897385</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.5783504462083</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522032</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667299</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>827.5554641779659</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D28" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6403,7 +6403,7 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
         <v>1866.513008862231</v>
@@ -6418,16 +6418,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384227</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5404723472666</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X28" t="n">
-        <v>827.5554641779659</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>827.5554641779659</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6461,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L29" t="n">
-        <v>1784.466183544591</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6540,19 +6540,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,22 +6570,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>817.455146590573</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>817.455146590573</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>667.3385071782373</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208127</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>999.1036114208127</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>999.1036114208127</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1407.474004094474</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,7 +6780,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,34 +6789,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282341</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>390.3640755286977</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286976</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286976</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1564.896328643332</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1564.896328643332</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1310.211840437446</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.794670400485</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X34" t="n">
-        <v>792.8051195024675</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>572.0125403589374</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386981</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739975</v>
+        <v>774.6894873488975</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022406</v>
+        <v>1248.332796164048</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.75391469433</v>
+        <v>1781.864700835972</v>
       </c>
       <c r="N35" t="n">
-        <v>2892.506186920977</v>
+        <v>2328.643517894754</v>
       </c>
       <c r="O35" t="n">
-        <v>3395.478657800314</v>
+        <v>3208.608168224209</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671152</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426834</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355222</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583935</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285975</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474705</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807637</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
         <v>178.26260317029</v>
@@ -7020,7 +7020,7 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685618</v>
@@ -7035,28 +7035,28 @@
         <v>2425.48520213423</v>
       </c>
       <c r="Q36" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R36" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S36" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U36" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X36" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y36" t="n">
         <v>1127.832408748666</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.0660218461493</v>
+        <v>582.2589880867685</v>
       </c>
       <c r="C37" t="n">
-        <v>721.9837947627332</v>
+        <v>449.1767610033522</v>
       </c>
       <c r="D37" t="n">
-        <v>607.721111194888</v>
+        <v>334.9140774355071</v>
       </c>
       <c r="E37" t="n">
-        <v>495.6619734569857</v>
+        <v>222.8549396976046</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352781</v>
+        <v>216.4342144604632</v>
       </c>
       <c r="G37" t="n">
-        <v>256.420285954488</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168366</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K37" t="n">
         <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935369</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045766</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S37" t="n">
-        <v>2070.659533992783</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T37" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U37" t="n">
-        <v>1631.497963376934</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V37" t="n">
-        <v>1631.497963376934</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W37" t="n">
-        <v>1377.934749184464</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.799154130937</v>
+        <v>912.9921203715569</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000.860530831898</v>
+        <v>728.0534970725175</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529683</v>
+        <v>731.676415452969</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386981</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739975</v>
+        <v>928.1877967739977</v>
       </c>
       <c r="L38" t="n">
-        <v>1792.706612427352</v>
+        <v>1379.222010022406</v>
       </c>
       <c r="M38" t="n">
-        <v>2326.238517099276</v>
+        <v>1912.75391469433</v>
       </c>
       <c r="N38" t="n">
-        <v>2873.017334158058</v>
+        <v>2459.532731753113</v>
       </c>
       <c r="O38" t="n">
-        <v>3375.989805037395</v>
+        <v>3339.497382082568</v>
       </c>
       <c r="P38" t="n">
-        <v>3770.764171394573</v>
+        <v>3734.271748439745</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426834</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355222</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583935</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J39" t="n">
         <v>178.26260317029</v>
@@ -7257,7 +7257,7 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
         <v>1230.501287685618</v>
@@ -7266,34 +7266,34 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R39" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T39" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U39" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V39" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y39" t="n">
         <v>1127.832408748666</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.2354894847526</v>
+        <v>582.2589880867687</v>
       </c>
       <c r="C40" t="n">
-        <v>553.7920274196297</v>
+        <v>449.1767610033524</v>
       </c>
       <c r="D40" t="n">
-        <v>439.5293438517848</v>
+        <v>334.9140774355073</v>
       </c>
       <c r="E40" t="n">
-        <v>327.4702061138825</v>
+        <v>222.8549396976048</v>
       </c>
       <c r="F40" t="n">
-        <v>216.434214460463</v>
+        <v>216.4342144604632</v>
       </c>
       <c r="G40" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935365</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,37 +7345,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376933</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015537</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9686217695407</v>
+        <v>912.9921203715572</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0299984705016</v>
+        <v>728.0534970725178</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529679</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571323</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590511</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>1059.898028287658</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1510.932241536067</v>
+        <v>1445.872985861815</v>
       </c>
       <c r="M41" t="n">
-        <v>2044.464146207991</v>
+        <v>1979.40489053374</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434637</v>
+        <v>2959.157162760386</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313974</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671152</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426834</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355222</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583935</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.26260317029</v>
@@ -7494,7 +7494,7 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
         <v>1230.501287685618</v>
@@ -7512,25 +7512,25 @@
         <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>725.6269796944449</v>
+        <v>582.2589880867686</v>
       </c>
       <c r="C43" t="n">
-        <v>725.6269796944449</v>
+        <v>449.1767610033523</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3642961266</v>
+        <v>449.1767610033523</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886977</v>
+        <v>337.1176232654499</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352782</v>
+        <v>337.1176232654499</v>
       </c>
       <c r="G43" t="n">
-        <v>256.420285954488</v>
+        <v>205.2687424846595</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168366</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967273</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218551</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935365</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,37 +7582,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T43" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1631.497963376934</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.667431015538</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W43" t="n">
-        <v>1248.49570703276</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.360111979233</v>
+        <v>912.9921203715573</v>
       </c>
       <c r="Y43" t="n">
-        <v>871.4214886801938</v>
+        <v>728.0534970725176</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151837</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529674</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424548</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571315</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386981</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285446</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576953</v>
+        <v>1225.723700597307</v>
       </c>
       <c r="M44" t="n">
-        <v>1591.849956248877</v>
+        <v>1781.864700835971</v>
       </c>
       <c r="N44" t="n">
-        <v>2571.602228475524</v>
+        <v>2328.643517894754</v>
       </c>
       <c r="O44" t="n">
-        <v>3451.566878804978</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996898</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.19036175258</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983636</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355221</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583934</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285975</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474705</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807637</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
         <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506372</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633023</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
@@ -7767,7 +7767,7 @@
         <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.709206777861</v>
+        <v>582.2589880867694</v>
       </c>
       <c r="C46" t="n">
-        <v>725.6269796944449</v>
+        <v>449.1767610033531</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961265998</v>
+        <v>334.914077435508</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886976</v>
+        <v>222.8549396976056</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352781</v>
+        <v>216.4342144604632</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544879</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168365</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935372</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992783</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.7468744068</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376934</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015538</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1381.577934116176</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>1189.442339062649</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.50371576361</v>
+        <v>728.0534970725184</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.0586514907045</v>
       </c>
       <c r="M3" t="n">
-        <v>267.9233699372456</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>116.5656919961587</v>
       </c>
       <c r="M11" t="n">
-        <v>260.9678829613766</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>195.2514630883925</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>130.0020851999082</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>148.4180109385406</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>248.8012738805276</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>50.84927212317581</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>417.9366924407896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>251.1867816683982</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>107.5040408147563</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,16 +9875,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>126.3855966773241</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>226.049409507737</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.1543674071817</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>17.45080131651162</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>22.83747026943621</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>133.0406378925865</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.725109192804666e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.7263477541203</v>
+        <v>123.870961168845</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>288.0894352916773</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>391.4696305907699</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>22.83747026943456</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>10.6694493280221</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.583000645652646e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.3904415970008</v>
       </c>
       <c r="C13" t="n">
-        <v>117.4809326109422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370452</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>107.4111697864651</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.6737819778356</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.9801063561889</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370258</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.1638429566204</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5353601298083</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.6114544366043</v>
       </c>
       <c r="X28" t="n">
-        <v>179.1944973014294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>36.57613584030494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.48912964370385</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>21.78530852085333</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.14213605696642</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.606753082394851</v>
+        <v>103.5691137521155</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379239</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400142</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377821</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>50.13237736811022</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>103.5691137521155</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282749</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
-        <v>60.8570041237922</v>
+        <v>60.85700412379239</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400143</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125819</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>50.64002803513072</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400145</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>88.49757530759467</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.5691137521146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400139</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2489801201768</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1099889.75001807</v>
+        <v>1099889.750018071</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1099889.75001807</v>
+        <v>1099889.750018071</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1099889.750018071</v>
+        <v>1099889.75001807</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
         <v>317665.4295095864</v>
@@ -26326,19 +26326,19 @@
         <v>317665.4295095864</v>
       </c>
       <c r="G2" t="n">
+        <v>317665.4295095862</v>
+      </c>
+      <c r="H2" t="n">
+        <v>317665.4295095865</v>
+      </c>
+      <c r="I2" t="n">
         <v>317665.4295095864</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>317665.4295095864</v>
       </c>
-      <c r="I2" t="n">
-        <v>317665.4295095865</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317665.4295095865</v>
-      </c>
       <c r="K2" t="n">
-        <v>317665.4295095866</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="L2" t="n">
         <v>317665.4295095864</v>
@@ -26347,13 +26347,13 @@
         <v>325789.3250672732</v>
       </c>
       <c r="N2" t="n">
-        <v>325789.3250672733</v>
+        <v>325789.3250672732</v>
       </c>
       <c r="O2" t="n">
         <v>325789.3250672732</v>
       </c>
       <c r="P2" t="n">
-        <v>325789.3250672731</v>
+        <v>325789.3250672732</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394258</v>
+        <v>507203.1428394251</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418127</v>
+        <v>78665.28217418201</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410732</v>
+        <v>157829.4001410731</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022187</v>
+        <v>18289.94367022196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547201</v>
+        <v>232017.7717547202</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.3086850187</v>
+        <v>55718.30868501854</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501868</v>
+        <v>55718.30868501852</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501868</v>
+        <v>55718.30868501852</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501868</v>
+        <v>55718.30868501855</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133427</v>
+        <v>77204.68871133421</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123675</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488008.8953597667</v>
+        <v>-488008.8953597661</v>
       </c>
       <c r="C6" t="n">
-        <v>-43030.06775491068</v>
+        <v>-43030.06775491158</v>
       </c>
       <c r="D6" t="n">
-        <v>35635.21441927055</v>
+        <v>35635.21441927046</v>
       </c>
       <c r="E6" t="n">
-        <v>-534657.3420904296</v>
+        <v>-534724.5375806554</v>
       </c>
       <c r="F6" t="n">
-        <v>192720.0719029768</v>
+        <v>192652.8764127512</v>
       </c>
       <c r="G6" t="n">
-        <v>192720.071902977</v>
+        <v>192652.876412751</v>
       </c>
       <c r="H6" t="n">
-        <v>192720.071902977</v>
+        <v>192652.8764127513</v>
       </c>
       <c r="I6" t="n">
-        <v>192720.0719029772</v>
+        <v>192652.8764127512</v>
       </c>
       <c r="J6" t="n">
-        <v>34890.67176190387</v>
+        <v>34823.47627167809</v>
       </c>
       <c r="K6" t="n">
-        <v>174430.1282327553</v>
+        <v>174362.9327425293</v>
       </c>
       <c r="L6" t="n">
-        <v>192720.071902977</v>
+        <v>192652.8764127514</v>
       </c>
       <c r="M6" t="n">
-        <v>55196.17537284268</v>
+        <v>55179.75422985255</v>
       </c>
       <c r="N6" t="n">
-        <v>179044.9665610178</v>
+        <v>179028.5454180276</v>
       </c>
       <c r="O6" t="n">
-        <v>179044.9665610177</v>
+        <v>179028.5454180277</v>
       </c>
       <c r="P6" t="n">
-        <v>179044.9665610177</v>
+        <v>179028.5454180276</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688972</v>
+        <v>316.5685789688967</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877017</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688972</v>
+        <v>316.5685789688967</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818942</v>
+        <v>61.17508524818999</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877017</v>
       </c>
       <c r="C4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685389</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877019</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685354</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413535</v>
+        <v>383.0293982413542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.2219356877017</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668532</v>
+        <v>71.06533706685389</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>20.2448173433026</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208646</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686673</v>
+        <v>69.92680236866742</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>138.54791551342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.57183926188674</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154863</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>121.2642806857361</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>19.77099803664694</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255616</v>
+        <v>52.99928112255623</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739091</v>
+        <v>38.36018782739099</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>25.88630449671744</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>51.36720034844336</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>207.965581704724</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>194.3936553553913</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>79.5983927958307</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.6230696481195</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>154.4639619306336</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.312883903651232e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.742286480701295e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.750640694000166e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392551</v>
+        <v>1.272637503392549</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161896</v>
+        <v>13.03339883161894</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954136</v>
+        <v>49.06335734954128</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035636</v>
+        <v>108.0135173035634</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221703</v>
+        <v>161.88426282217</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166201</v>
+        <v>200.8317428166198</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175774</v>
+        <v>223.464010017577</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240915</v>
+        <v>227.0798913240911</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497318</v>
+        <v>214.4251021497314</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847282</v>
+        <v>183.0068637847279</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944824</v>
+        <v>137.4305331944822</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248239</v>
+        <v>79.94231557248226</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855778</v>
+        <v>29.00022710855773</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100893</v>
+        <v>5.570970671100884</v>
       </c>
       <c r="U2" t="n">
-        <v>0.101811000271404</v>
+        <v>0.1018110002714039</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859298</v>
+        <v>0.6809210943859287</v>
       </c>
       <c r="H3" t="n">
-        <v>6.57626425367464</v>
+        <v>6.576264253674629</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986645</v>
+        <v>23.44399381986641</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933033</v>
+        <v>64.33211093933024</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631876</v>
+        <v>109.9538242631875</v>
       </c>
       <c r="L3" t="n">
-        <v>147.846485866559</v>
+        <v>147.8464858665588</v>
       </c>
       <c r="M3" t="n">
-        <v>172.529875538049</v>
+        <v>172.5298755380487</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648739</v>
+        <v>177.0962279648736</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313752</v>
+        <v>162.0084500313749</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674325</v>
+        <v>130.0260640674323</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915836</v>
+        <v>86.91898039915822</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248784</v>
+        <v>42.27683777248777</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861584</v>
+        <v>12.64781067861582</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739778</v>
+        <v>2.744589849739773</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012698</v>
+        <v>0.04479744042012691</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111261</v>
+        <v>0.5708613719111252</v>
       </c>
       <c r="H4" t="n">
-        <v>5.07547656117347</v>
+        <v>5.075476561173462</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801823</v>
+        <v>17.1673583480182</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411661</v>
+        <v>40.35989899411655</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840172</v>
+        <v>66.32371211840162</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667779</v>
+        <v>84.87151705667766</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148677</v>
+        <v>89.48511487148663</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890902</v>
+        <v>87.35735884890887</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009521992</v>
+        <v>80.68866009521979</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823289</v>
+        <v>69.04308810823278</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430348</v>
+        <v>47.8018554243034</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065844</v>
+        <v>25.6680031406584</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760258</v>
+        <v>9.948556817760242</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711175</v>
+        <v>2.439134952711171</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333418</v>
+        <v>0.03113789301333414</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970259</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895107</v>
+        <v>96.0642279489509</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483545</v>
+        <v>265.9398243483543</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970833</v>
+        <v>382.726542397083</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831372</v>
+        <v>442.6313102831368</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394847</v>
+        <v>435.0137521394844</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907905</v>
+        <v>365.1270719907901</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009413</v>
+        <v>273.5725762009409</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799376</v>
+        <v>127.4398339799374</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307248</v>
+        <v>63.58551961307238</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014072</v>
+        <v>236.5776223014071</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901441</v>
+        <v>182.3507575773891</v>
       </c>
       <c r="M3" t="n">
-        <v>298.3192115532763</v>
+        <v>496.1009053660302</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250942</v>
+        <v>525.0968902250938</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636602</v>
+        <v>413.27452486366</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930395</v>
+        <v>314.5144252930393</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489859</v>
+        <v>157.0144940489858</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251886</v>
+        <v>44.05422029251876</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169939</v>
+        <v>112.4615423169938</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333273</v>
+        <v>129.0689918333272</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281376</v>
+        <v>131.4895312281375</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092596</v>
+        <v>105.2737880092595</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312638</v>
+        <v>66.32164737312627</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>572.1558063884909</v>
       </c>
       <c r="M11" t="n">
-        <v>799.8889987916032</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>532.442749643793</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>638.0550860881273</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35890,13 +35890,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>687.3391267687674</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>756.8542747687467</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36057,7 +36057,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451075</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>388.0405586785763</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>956.8578082710163</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36279,7 +36279,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>588.3780682237987</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>615.5570417029754</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36595,16 +36595,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>581.9757110696563</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>778.3512449206485</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>684.7444817995139</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>473.0409157088436</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>478.4275846617682</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>531.8026241119582</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911212</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>403.5206525578397</v>
+        <v>374.6652659725644</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525815</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L40" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N40" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>625.2807218470776</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>847.0597449831018</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L43" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N43" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>561.7585860996613</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>409.4314355473937</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
